--- a/TestHighway4Output.xlsx
+++ b/TestHighway4Output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\OneDrive\Software Projects\HCM-CALC\_DataFiles\HCM\HighwayFacility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\NCHRP-08-135-Team_GitHub\CompEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211F4080-1404-4FBA-93E9-F3FA812B3FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5820948-22C2-454A-A173-4D342AC5C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestHighway4Output" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="63">
   <si>
     <t>Seg ID</t>
   </si>
@@ -203,15 +203,37 @@
   </si>
   <si>
     <t>% TravTime</t>
+  </si>
+  <si>
+    <t>Trav Time Wtd</t>
+  </si>
+  <si>
+    <t>Seg Len Wtd</t>
+  </si>
+  <si>
+    <t>Travel Rate Wtd</t>
+  </si>
+  <si>
+    <t>Travel Rate</t>
+  </si>
+  <si>
+    <t>Length %</t>
+  </si>
+  <si>
+    <t>% Travel Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -690,11 +712,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1050,23 +1076,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="AD23" sqref="AD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,6 +1126,9 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
@@ -1131,49 +1169,67 @@
         <v>56</v>
       </c>
       <c r="W1" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
+      <c r="AN1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1198,9 +1254,9 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <f>H2/$H$20</f>
-        <v>5.7875729234188343E-2</v>
+      <c r="I2" s="2">
+        <f>H2/$H$20*100</f>
+        <v>5.7875729234188347</v>
       </c>
       <c r="J2">
         <v>55</v>
@@ -1238,66 +1294,78 @@
       <c r="U2">
         <v>60</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="7">
         <f>U2/$U$20*100</f>
         <v>4.5123978129911935</v>
       </c>
-      <c r="W2" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2">
+      <c r="W2" s="3">
+        <f>1/T2</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="X2" s="7">
+        <f>W2/$W$20*100</f>
+        <v>3.6506835231229107</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2">
         <v>9.6</v>
       </c>
-      <c r="Z2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>35</v>
-      </c>
       <c r="AB2" t="s">
         <v>35</v>
       </c>
       <c r="AC2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" t="s">
         <v>36</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>0.88</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>0.26300000000000001</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>69473.7</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AH2">
+      <c r="AJ2">
         <v>1157.9000000000001</v>
       </c>
-      <c r="AI2">
+      <c r="AK2">
         <v>19.297999999999998</v>
       </c>
-      <c r="AJ2">
+      <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AL2">
-        <f>AD2*V2/100</f>
+      <c r="AN2" s="5">
+        <f>AF2*V2/100</f>
         <v>3.9709100754322504E-2</v>
       </c>
-      <c r="AM2">
-        <f>AD2*H2</f>
+      <c r="AO2">
+        <f>AF2*H2</f>
         <v>0.88</v>
       </c>
-      <c r="AN2">
-        <f>AD2*I2</f>
-        <v>5.0930641726085739E-2</v>
+      <c r="AP2" s="6">
+        <f>AF2*I2/100</f>
+        <v>5.0930641726085746E-2</v>
+      </c>
+      <c r="AQ2" s="6">
+        <f>AF2*X2/100</f>
+        <v>3.2126015003481612E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1322,9 +1390,9 @@
       <c r="H3">
         <v>0.98670000000000002</v>
       </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I19" si="0">H3/$H$20</f>
-        <v>5.7105982035373641E-2</v>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I19" si="0">H3/$H$20*100</f>
+        <v>5.7105982035373639</v>
       </c>
       <c r="J3">
         <v>55</v>
@@ -1362,66 +1430,78 @@
       <c r="U3">
         <v>67.66</v>
       </c>
-      <c r="V3" s="3">
+      <c r="V3" s="7">
         <f t="shared" ref="V3:V6" si="1">U3/$U$20*100</f>
         <v>5.0884806004497349</v>
       </c>
-      <c r="W3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3">
+      <c r="W3" s="3">
+        <f t="shared" ref="W3:W19" si="2">1/T3</f>
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="X3" s="7">
+        <f t="shared" ref="X3:X19" si="3">W3/$W$20*100</f>
+        <v>4.1722097407118985</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3">
         <v>11.6</v>
       </c>
-      <c r="Z3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>35</v>
-      </c>
       <c r="AB3" t="s">
         <v>35</v>
       </c>
       <c r="AC3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" t="s">
         <v>37</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>1.08</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>0.29699999999999999</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>60789.5</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>0</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>1142.54</v>
       </c>
-      <c r="AI3">
+      <c r="AK3">
         <v>21.763000000000002</v>
       </c>
-      <c r="AJ3">
+      <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AL3">
-        <f t="shared" ref="AL3:AL19" si="2">AD3*V3/100</f>
+      <c r="AN3" s="5">
+        <f t="shared" ref="AN3:AN19" si="4">AF3*V3/100</f>
         <v>5.4955590484857139E-2</v>
       </c>
-      <c r="AM3">
-        <f>AD3*H3</f>
+      <c r="AO3">
+        <f>AF3*H3</f>
         <v>1.065636</v>
       </c>
-      <c r="AN3">
-        <f t="shared" ref="AN3:AN19" si="3">AD3*I3</f>
-        <v>6.1674460598203536E-2</v>
+      <c r="AP3" s="6">
+        <f t="shared" ref="AP3:AP19" si="5">AF3*I3/100</f>
+        <v>6.1674460598203529E-2</v>
+      </c>
+      <c r="AQ3" s="6">
+        <f t="shared" ref="AQ3:AQ19" si="6">AF3*X3/100</f>
+        <v>4.5059865199688513E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1446,9 +1526,9 @@
       <c r="H4">
         <v>0.51249999999999996</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <f t="shared" si="0"/>
-        <v>2.9661311232521526E-2</v>
+        <v>2.9661311232521523</v>
       </c>
       <c r="J4">
         <v>35</v>
@@ -1486,63 +1566,75 @@
       <c r="U4">
         <v>81.349999999999994</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="7">
         <f t="shared" si="1"/>
         <v>6.1180593681138919</v>
       </c>
-      <c r="W4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" t="s">
-        <v>35</v>
+      <c r="W4" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4091710758377423E-2</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="3"/>
+        <v>9.6578929183145767</v>
       </c>
       <c r="Y4" t="s">
         <v>35</v>
       </c>
+      <c r="Z4" t="s">
+        <v>35</v>
+      </c>
       <c r="AA4" t="s">
         <v>35</v>
       </c>
-      <c r="AB4">
+      <c r="AC4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4">
         <v>28.6</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" t="s">
         <v>39</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>2.58</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>0.59</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>19958.099999999999</v>
       </c>
-      <c r="AG4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH4">
+      <c r="AI4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4">
         <v>451</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>19.899999999999999</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>7</v>
       </c>
-      <c r="AL4">
-        <f t="shared" si="2"/>
+      <c r="AN4" s="5">
+        <f t="shared" si="4"/>
         <v>0.15784593169733843</v>
       </c>
-      <c r="AM4">
-        <f>AD4*H4</f>
+      <c r="AO4">
+        <f>AF4*H4</f>
         <v>1.3222499999999999</v>
       </c>
-      <c r="AN4">
-        <f t="shared" si="3"/>
-        <v>7.6526182979905544E-2</v>
+      <c r="AP4" s="6">
+        <f t="shared" si="5"/>
+        <v>7.652618297990553E-2</v>
+      </c>
+      <c r="AQ4" s="6">
+        <f t="shared" si="6"/>
+        <v>0.24917363729251607</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1567,9 +1659,9 @@
       <c r="H5">
         <v>0.58220000000000005</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <f t="shared" si="0"/>
-        <v>3.3695249560144455E-2</v>
+        <v>3.3695249560144456</v>
       </c>
       <c r="J5">
         <v>55</v>
@@ -1607,66 +1699,78 @@
       <c r="U5">
         <v>35.26</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="7">
         <f t="shared" si="1"/>
         <v>2.6517857814344912</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6823687752355317E-2</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6850775805412961</v>
+      </c>
+      <c r="Y5">
         <v>64.400000000000006</v>
       </c>
-      <c r="X5">
+      <c r="Z5">
         <v>12.4</v>
       </c>
-      <c r="Y5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z5">
+      <c r="AA5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB5">
         <v>8</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>8</v>
       </c>
-      <c r="AB5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" t="s">
         <v>39</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>3</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>0.433</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>43798</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>1.8</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>428.99</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <v>7.2169999999999996</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <v>0.38</v>
       </c>
-      <c r="AL5">
-        <f t="shared" si="2"/>
+      <c r="AN5" s="5">
+        <f t="shared" si="4"/>
         <v>7.9553573443034736E-2</v>
       </c>
-      <c r="AM5">
-        <f>AD5*H5</f>
+      <c r="AO5">
+        <f>AF5*H5</f>
         <v>1.7466000000000002</v>
       </c>
-      <c r="AN5">
-        <f t="shared" si="3"/>
-        <v>0.10108574868043337</v>
+      <c r="AP5" s="6">
+        <f t="shared" si="5"/>
+        <v>0.10108574868043338</v>
+      </c>
+      <c r="AQ5" s="6">
+        <f t="shared" si="6"/>
+        <v>0.11055232741623888</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1691,9 +1795,9 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
-        <v>5.7875729234188343E-2</v>
+        <v>5.7875729234188347</v>
       </c>
       <c r="J6">
         <v>55</v>
@@ -1731,66 +1835,78 @@
       <c r="U6">
         <v>58.57</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="7">
         <f t="shared" si="1"/>
         <v>4.4048523317815693</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6270745200130166E-2</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="3"/>
+        <v>3.563960484662783</v>
+      </c>
+      <c r="Y6">
         <v>40.6</v>
       </c>
-      <c r="X6">
+      <c r="Z6">
         <v>12</v>
       </c>
-      <c r="Y6" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6">
+      <c r="AA6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB6">
         <v>2.4</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>2.4</v>
       </c>
-      <c r="AB6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" t="s">
         <v>37</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>1.21</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>0.246</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>45287.1</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>1.2</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>736.84</v>
       </c>
-      <c r="AI6">
+      <c r="AK6">
         <v>11.994</v>
       </c>
-      <c r="AJ6">
+      <c r="AL6">
         <v>0.24</v>
       </c>
-      <c r="AL6">
-        <f t="shared" si="2"/>
+      <c r="AN6" s="5">
+        <f t="shared" si="4"/>
         <v>5.3298713214556981E-2</v>
       </c>
-      <c r="AM6">
-        <f>AD6*H6</f>
+      <c r="AO6">
+        <f>AF6*H6</f>
         <v>1.21</v>
       </c>
-      <c r="AN6">
-        <f t="shared" si="3"/>
-        <v>7.0029632373367887E-2</v>
+      <c r="AP6" s="6">
+        <f t="shared" si="5"/>
+        <v>7.00296323733679E-2</v>
+      </c>
+      <c r="AQ6" s="6">
+        <f t="shared" si="6"/>
+        <v>4.3123921864419677E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1815,6 +1931,7 @@
       <c r="H7" t="s">
         <v>35</v>
       </c>
+      <c r="I7" s="2"/>
       <c r="J7" t="s">
         <v>35</v>
       </c>
@@ -1851,25 +1968,21 @@
       <c r="U7">
         <v>57.62</v>
       </c>
-      <c r="V7" s="3"/>
-      <c r="W7">
+      <c r="V7" s="7"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="7"/>
+      <c r="Y7">
         <v>44.4</v>
       </c>
-      <c r="X7">
+      <c r="Z7">
         <v>7</v>
       </c>
-      <c r="Y7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z7">
+      <c r="AA7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7">
         <v>3.1</v>
       </c>
-      <c r="AA7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>35</v>
-      </c>
       <c r="AC7" t="s">
         <v>35</v>
       </c>
@@ -1885,14 +1998,23 @@
       <c r="AG7" t="s">
         <v>35</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ7">
         <v>434.93</v>
       </c>
-      <c r="AI7">
+      <c r="AK7">
         <v>6.9610000000000003</v>
       </c>
+      <c r="AN7" s="5"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1917,6 +2039,7 @@
       <c r="H8" t="s">
         <v>35</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="J8" t="s">
         <v>35</v>
       </c>
@@ -1953,25 +2076,21 @@
       <c r="U8">
         <v>60</v>
       </c>
-      <c r="V8" s="3"/>
-      <c r="W8">
-        <v>35</v>
-      </c>
-      <c r="X8">
+      <c r="V8" s="7"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="7"/>
+      <c r="Y8">
+        <v>35</v>
+      </c>
+      <c r="Z8">
         <v>5</v>
       </c>
-      <c r="Y8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z8">
+      <c r="AA8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB8">
         <v>1.8</v>
       </c>
-      <c r="AA8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>35</v>
-      </c>
       <c r="AC8" t="s">
         <v>35</v>
       </c>
@@ -1987,14 +2106,23 @@
       <c r="AG8" t="s">
         <v>35</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ8">
         <v>301.91000000000003</v>
       </c>
-      <c r="AI8">
+      <c r="AK8">
         <v>5.032</v>
       </c>
+      <c r="AN8" s="5"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2019,9 +2147,9 @@
       <c r="H9">
         <v>1.25</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>7.2344661542735431E-2</v>
+        <v>7.2344661542735427</v>
       </c>
       <c r="J9">
         <v>55</v>
@@ -2059,66 +2187,78 @@
       <c r="U9">
         <v>75.75</v>
       </c>
-      <c r="V9" s="3">
-        <f t="shared" ref="V9:V19" si="4">U9/$U$20*100</f>
+      <c r="V9" s="7">
+        <f t="shared" ref="V9:V19" si="7">U9/$U$20*100</f>
         <v>5.6969022389013819</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6832183134152502E-2</v>
+      </c>
+      <c r="X9" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6869384175622737</v>
+      </c>
+      <c r="Y9">
         <v>63.4</v>
       </c>
-      <c r="X9">
+      <c r="Z9">
         <v>12.4</v>
       </c>
-      <c r="Y9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z9">
+      <c r="AA9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB9">
         <v>7.9</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>6.5</v>
       </c>
-      <c r="AB9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE9" t="s">
         <v>39</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>2.62</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>0.433</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>43775.7</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>4</v>
       </c>
-      <c r="AH9">
+      <c r="AJ9">
         <v>921.05</v>
       </c>
-      <c r="AI9">
+      <c r="AK9">
         <v>15.503</v>
       </c>
-      <c r="AJ9">
+      <c r="AL9">
         <v>0.81</v>
       </c>
-      <c r="AL9">
-        <f t="shared" si="2"/>
+      <c r="AN9" s="5">
+        <f t="shared" si="4"/>
         <v>0.14925883865921621</v>
       </c>
-      <c r="AM9">
-        <f t="shared" ref="AM9:AM19" si="5">AD9*H9</f>
+      <c r="AO9">
+        <f t="shared" ref="AO9:AO19" si="8">AF9*H9</f>
         <v>3.2750000000000004</v>
       </c>
-      <c r="AN9">
-        <f t="shared" si="3"/>
-        <v>0.18954301324196685</v>
+      <c r="AP9" s="6">
+        <f t="shared" si="5"/>
+        <v>0.18954301324196682</v>
+      </c>
+      <c r="AQ9" s="6">
+        <f t="shared" si="6"/>
+        <v>9.6597786540131569E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2143,9 +2283,9 @@
       <c r="H10">
         <v>1.5078</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>8.7265024539309191E-2</v>
+        <v>8.7265024539309195</v>
       </c>
       <c r="J10">
         <v>55</v>
@@ -2183,66 +2323,78 @@
       <c r="U10">
         <v>90.98</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="7">
+        <f t="shared" si="7"/>
+        <v>6.8422992170989794</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6761649346295676E-2</v>
+      </c>
+      <c r="X10" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6714886253331316</v>
+      </c>
+      <c r="Y10">
+        <v>61.9</v>
+      </c>
+      <c r="Z10">
+        <v>12.3</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB10">
+        <v>7.6</v>
+      </c>
+      <c r="AC10">
+        <v>6.7</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF10">
+        <v>2.68</v>
+      </c>
+      <c r="AG10">
+        <v>0.433</v>
+      </c>
+      <c r="AH10">
+        <v>43962.8</v>
+      </c>
+      <c r="AI10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AJ10">
+        <v>1110.99</v>
+      </c>
+      <c r="AK10">
+        <v>18.620999999999999</v>
+      </c>
+      <c r="AL10">
+        <v>0.9</v>
+      </c>
+      <c r="AN10" s="5">
         <f t="shared" si="4"/>
-        <v>6.8422992170989794</v>
-      </c>
-      <c r="W10">
-        <v>61.9</v>
-      </c>
-      <c r="X10">
-        <v>12.3</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z10">
-        <v>7.6</v>
-      </c>
-      <c r="AA10">
-        <v>6.7</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD10">
-        <v>2.68</v>
-      </c>
-      <c r="AE10">
-        <v>0.433</v>
-      </c>
-      <c r="AF10">
-        <v>43962.8</v>
-      </c>
-      <c r="AG10">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AH10">
-        <v>1110.99</v>
-      </c>
-      <c r="AI10">
-        <v>18.620999999999999</v>
-      </c>
-      <c r="AJ10">
-        <v>0.9</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="2"/>
         <v>0.18337361901825264</v>
       </c>
-      <c r="AM10">
+      <c r="AO10">
+        <f t="shared" si="8"/>
+        <v>4.0409040000000003</v>
+      </c>
+      <c r="AP10" s="6">
         <f t="shared" si="5"/>
-        <v>4.0409040000000003</v>
-      </c>
-      <c r="AN10">
-        <f t="shared" si="3"/>
         <v>0.23387026576534864</v>
       </c>
+      <c r="AQ10" s="6">
+        <f t="shared" si="6"/>
+        <v>9.8395895158927937E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2267,9 +2419,9 @@
       <c r="H11">
         <v>0.49730000000000002</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <f t="shared" si="0"/>
-        <v>2.8781600148161866E-2</v>
+        <v>2.8781600148161868</v>
       </c>
       <c r="J11">
         <v>40</v>
@@ -2307,63 +2459,75 @@
       <c r="U11">
         <v>71.64</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="7">
+        <f t="shared" si="7"/>
+        <v>5.3878029887114849</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0016006402561026E-2</v>
+      </c>
+      <c r="X11" s="7">
+        <f t="shared" si="3"/>
+        <v>8.7651465141006266</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD11">
+        <v>26.9</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF11">
+        <v>2.46</v>
+      </c>
+      <c r="AG11">
+        <v>0.48</v>
+      </c>
+      <c r="AH11">
+        <v>18118.400000000001</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ11">
+        <v>360.6</v>
+      </c>
+      <c r="AK11">
+        <v>14.4</v>
+      </c>
+      <c r="AL11">
+        <v>5.41</v>
+      </c>
+      <c r="AN11" s="5">
         <f t="shared" si="4"/>
-        <v>5.3878029887114849</v>
-      </c>
-      <c r="W11" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB11">
-        <v>26.9</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD11">
-        <v>2.46</v>
-      </c>
-      <c r="AE11">
-        <v>0.48</v>
-      </c>
-      <c r="AF11">
-        <v>18118.400000000001</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH11">
-        <v>360.6</v>
-      </c>
-      <c r="AI11">
-        <v>14.4</v>
-      </c>
-      <c r="AJ11">
-        <v>5.41</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="2"/>
         <v>0.13253995352230252</v>
       </c>
-      <c r="AM11">
+      <c r="AO11">
+        <f t="shared" si="8"/>
+        <v>1.2233579999999999</v>
+      </c>
+      <c r="AP11" s="6">
         <f t="shared" si="5"/>
-        <v>1.2233579999999999</v>
-      </c>
-      <c r="AN11">
-        <f t="shared" si="3"/>
         <v>7.0802736364478189E-2</v>
       </c>
+      <c r="AQ11" s="6">
+        <f t="shared" si="6"/>
+        <v>0.2156226042468754</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2388,9 +2552,9 @@
       <c r="H12">
         <v>1.8736999999999999</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <f t="shared" si="0"/>
-        <v>0.10844175386609869</v>
+        <v>10.844175386609869</v>
       </c>
       <c r="J12">
         <v>55</v>
@@ -2428,66 +2592,78 @@
       <c r="U12">
         <v>112.42</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="7">
+        <f t="shared" si="7"/>
+        <v>8.4547293689411642</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="X12" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6506835231229107</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA12">
+        <v>7</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF12">
+        <v>0.64</v>
+      </c>
+      <c r="AG12">
+        <v>0.191</v>
+      </c>
+      <c r="AH12">
+        <v>50526.3</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>1577.83</v>
+      </c>
+      <c r="AK12">
+        <v>26.297000000000001</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="5">
         <f t="shared" si="4"/>
-        <v>8.4547293689411642</v>
-      </c>
-      <c r="W12" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12">
-        <v>7</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD12">
-        <v>0.64</v>
-      </c>
-      <c r="AE12">
-        <v>0.191</v>
-      </c>
-      <c r="AF12">
-        <v>50526.3</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>1577.83</v>
-      </c>
-      <c r="AI12">
-        <v>26.297000000000001</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="2"/>
         <v>5.4110267961223452E-2</v>
       </c>
-      <c r="AM12">
+      <c r="AO12">
+        <f t="shared" si="8"/>
+        <v>1.199168</v>
+      </c>
+      <c r="AP12" s="6">
         <f t="shared" si="5"/>
-        <v>1.199168</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="3"/>
         <v>6.9402722474303166E-2</v>
       </c>
+      <c r="AQ12" s="6">
+        <f t="shared" si="6"/>
+        <v>2.3364374547986629E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2512,9 +2688,9 @@
       <c r="H13">
         <v>2.9247999999999998</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <f t="shared" si="0"/>
-        <v>0.16927493286415407</v>
+        <v>16.927493286415405</v>
       </c>
       <c r="J13">
         <v>55</v>
@@ -2552,66 +2728,78 @@
       <c r="U13">
         <v>200.56</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="7">
+        <f t="shared" si="7"/>
+        <v>15.083441756225227</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="2"/>
+        <v>1.9047619047619049E-2</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" si="3"/>
+        <v>4.1722097407118985</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA13">
+        <v>8.4</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF13">
+        <v>0.77</v>
+      </c>
+      <c r="AG13">
+        <v>0.216</v>
+      </c>
+      <c r="AH13">
+        <v>44210.5</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>2463</v>
+      </c>
+      <c r="AK13">
+        <v>46.914000000000001</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="5">
         <f t="shared" si="4"/>
-        <v>15.083441756225227</v>
-      </c>
-      <c r="W13" t="s">
-        <v>35</v>
-      </c>
-      <c r="X13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y13">
-        <v>8.4</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD13">
-        <v>0.77</v>
-      </c>
-      <c r="AE13">
-        <v>0.216</v>
-      </c>
-      <c r="AF13">
-        <v>44210.5</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>2463</v>
-      </c>
-      <c r="AI13">
-        <v>46.914000000000001</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="2"/>
         <v>0.11614250152293425</v>
       </c>
-      <c r="AM13">
+      <c r="AO13">
+        <f t="shared" si="8"/>
+        <v>2.2520959999999999</v>
+      </c>
+      <c r="AP13" s="6">
         <f t="shared" si="5"/>
-        <v>2.2520959999999999</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="3"/>
         <v>0.13034169830539863</v>
       </c>
+      <c r="AQ13" s="6">
+        <f t="shared" si="6"/>
+        <v>3.2126015003481619E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2636,9 +2824,9 @@
       <c r="H14">
         <v>0.56879999999999997</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <f t="shared" si="0"/>
-        <v>3.2919714788406329E-2</v>
+        <v>3.2919714788406331</v>
       </c>
       <c r="J14">
         <v>35</v>
@@ -2676,63 +2864,75 @@
       <c r="U14">
         <v>88.3</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="7">
+        <f t="shared" si="7"/>
+        <v>6.6407454481187056</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="2"/>
+        <v>4.3122035360068992E-2</v>
+      </c>
+      <c r="X14" s="7">
+        <f t="shared" si="3"/>
+        <v>9.4454942383516443</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD14">
+        <v>29.8</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF14">
+        <v>2.65</v>
+      </c>
+      <c r="AG14">
+        <v>0.64</v>
+      </c>
+      <c r="AH14">
+        <v>20868.7</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ14">
+        <v>511.9</v>
+      </c>
+      <c r="AK14">
+        <v>22.1</v>
+      </c>
+      <c r="AL14">
+        <v>7.45</v>
+      </c>
+      <c r="AN14" s="5">
         <f t="shared" si="4"/>
-        <v>6.6407454481187056</v>
-      </c>
-      <c r="W14" t="s">
-        <v>35</v>
-      </c>
-      <c r="X14" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB14">
-        <v>29.8</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD14">
-        <v>2.65</v>
-      </c>
-      <c r="AE14">
-        <v>0.64</v>
-      </c>
-      <c r="AF14">
-        <v>20868.7</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH14">
-        <v>511.9</v>
-      </c>
-      <c r="AI14">
-        <v>22.1</v>
-      </c>
-      <c r="AJ14">
-        <v>7.45</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="2"/>
         <v>0.17597975437514571</v>
       </c>
-      <c r="AM14">
+      <c r="AO14">
+        <f t="shared" si="8"/>
+        <v>1.5073199999999998</v>
+      </c>
+      <c r="AP14" s="6">
         <f t="shared" si="5"/>
-        <v>1.5073199999999998</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="3"/>
         <v>8.7237244189276766E-2</v>
       </c>
+      <c r="AQ14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.25030559731631857</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2757,9 +2957,9 @@
       <c r="H15">
         <v>0.69199999999999995</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>4.0050004630058332E-2</v>
+        <v>4.0050004630058336</v>
       </c>
       <c r="J15">
         <v>55</v>
@@ -2797,66 +2997,78 @@
       <c r="U15">
         <v>41.86</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="7">
+        <f t="shared" si="7"/>
+        <v>3.1481495408635221</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6803898504453033E-2</v>
+      </c>
+      <c r="X15" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6807429236661844</v>
+      </c>
+      <c r="Y15">
+        <v>59.8</v>
+      </c>
+      <c r="Z15">
+        <v>10.6</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB15">
+        <v>6.3</v>
+      </c>
+      <c r="AC15">
+        <v>6.3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF15">
+        <v>2.59</v>
+      </c>
+      <c r="AG15">
+        <v>0.372</v>
+      </c>
+      <c r="AH15">
+        <v>37585.800000000003</v>
+      </c>
+      <c r="AI15">
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <v>437.08</v>
+      </c>
+      <c r="AK15">
+        <v>7.3449999999999998</v>
+      </c>
+      <c r="AL15">
+        <v>0.36</v>
+      </c>
+      <c r="AN15" s="5">
         <f t="shared" si="4"/>
-        <v>3.1481495408635221</v>
-      </c>
-      <c r="W15">
-        <v>59.8</v>
-      </c>
-      <c r="X15">
-        <v>10.6</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z15">
-        <v>6.3</v>
-      </c>
-      <c r="AA15">
-        <v>6.3</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD15">
-        <v>2.59</v>
-      </c>
-      <c r="AE15">
-        <v>0.372</v>
-      </c>
-      <c r="AF15">
-        <v>37585.800000000003</v>
-      </c>
-      <c r="AG15">
-        <v>2</v>
-      </c>
-      <c r="AH15">
-        <v>437.08</v>
-      </c>
-      <c r="AI15">
-        <v>7.3449999999999998</v>
-      </c>
-      <c r="AJ15">
-        <v>0.36</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="2"/>
         <v>8.1537073108365221E-2</v>
       </c>
-      <c r="AM15">
+      <c r="AO15">
+        <f t="shared" si="8"/>
+        <v>1.7922799999999999</v>
+      </c>
+      <c r="AP15" s="6">
         <f t="shared" si="5"/>
-        <v>1.7922799999999999</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="3"/>
-        <v>0.10372951199185107</v>
+        <v>0.10372951199185108</v>
+      </c>
+      <c r="AQ15" s="6">
+        <f t="shared" si="6"/>
+        <v>9.533124172295418E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2881,9 +3093,9 @@
       <c r="H16">
         <v>0.26269999999999999</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <f t="shared" si="0"/>
-        <v>1.5203954069821278E-2</v>
+        <v>1.5203954069821277</v>
       </c>
       <c r="J16">
         <v>35</v>
@@ -2921,63 +3133,75 @@
       <c r="U16">
         <v>61.29</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="7">
+        <f t="shared" si="7"/>
+        <v>4.6094143659705038</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.4808813998703821E-2</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="3"/>
+        <v>14.195788165092328</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF16">
+        <v>3.93</v>
+      </c>
+      <c r="AG16">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AH16">
+        <v>12181.1</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ16">
+        <v>207.4</v>
+      </c>
+      <c r="AK16">
+        <v>13.4</v>
+      </c>
+      <c r="AL16">
+        <v>7.52</v>
+      </c>
+      <c r="AN16" s="5">
         <f t="shared" si="4"/>
-        <v>4.6094143659705038</v>
-      </c>
-      <c r="W16" t="s">
-        <v>35</v>
-      </c>
-      <c r="X16" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB16">
-        <v>34.299999999999997</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD16">
-        <v>3.93</v>
-      </c>
-      <c r="AE16">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="AF16">
-        <v>12181.1</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH16">
-        <v>207.4</v>
-      </c>
-      <c r="AI16">
-        <v>13.4</v>
-      </c>
-      <c r="AJ16">
-        <v>7.52</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="2"/>
         <v>0.18114998458264078</v>
       </c>
-      <c r="AM16">
+      <c r="AO16">
+        <f t="shared" si="8"/>
+        <v>1.032411</v>
+      </c>
+      <c r="AP16" s="6">
         <f t="shared" si="5"/>
-        <v>1.032411</v>
-      </c>
-      <c r="AN16">
-        <f t="shared" si="3"/>
-        <v>5.9751539494397626E-2</v>
+        <v>5.9751539494397619E-2</v>
+      </c>
+      <c r="AQ16" s="6">
+        <f t="shared" si="6"/>
+        <v>0.55789447488812849</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3002,9 +3226,9 @@
       <c r="H17">
         <v>1.8642000000000001</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <f t="shared" si="0"/>
-        <v>0.10789193443837392</v>
+        <v>10.789193443837391</v>
       </c>
       <c r="J17">
         <v>55</v>
@@ -3042,66 +3266,78 @@
       <c r="U17">
         <v>112.36</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="7">
+        <f t="shared" si="7"/>
+        <v>8.4502169711281745</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6742005692281937E-2</v>
+      </c>
+      <c r="X17" s="7">
+        <f t="shared" si="3"/>
+        <v>3.667185859490619</v>
+      </c>
+      <c r="Y17">
+        <v>58.1</v>
+      </c>
+      <c r="Z17">
+        <v>10.6</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB17">
+        <v>6.1</v>
+      </c>
+      <c r="AC17">
+        <v>6.1</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF17">
+        <v>2.54</v>
+      </c>
+      <c r="AG17">
+        <v>0.372</v>
+      </c>
+      <c r="AH17">
+        <v>37723.199999999997</v>
+      </c>
+      <c r="AI17">
+        <v>5</v>
+      </c>
+      <c r="AJ17">
+        <v>1177.3900000000001</v>
+      </c>
+      <c r="AK17">
+        <v>19.712</v>
+      </c>
+      <c r="AL17">
+        <v>0.88</v>
+      </c>
+      <c r="AN17" s="5">
         <f t="shared" si="4"/>
-        <v>8.4502169711281745</v>
-      </c>
-      <c r="W17">
-        <v>58.1</v>
-      </c>
-      <c r="X17">
-        <v>10.6</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17">
-        <v>6.1</v>
-      </c>
-      <c r="AA17">
-        <v>6.1</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD17">
-        <v>2.54</v>
-      </c>
-      <c r="AE17">
-        <v>0.372</v>
-      </c>
-      <c r="AF17">
-        <v>37723.199999999997</v>
-      </c>
-      <c r="AG17">
-        <v>5</v>
-      </c>
-      <c r="AH17">
-        <v>1177.3900000000001</v>
-      </c>
-      <c r="AI17">
-        <v>19.712</v>
-      </c>
-      <c r="AJ17">
-        <v>0.88</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="2"/>
         <v>0.21463551106665563</v>
       </c>
-      <c r="AM17">
+      <c r="AO17">
+        <f t="shared" si="8"/>
+        <v>4.7350680000000001</v>
+      </c>
+      <c r="AP17" s="6">
         <f t="shared" si="5"/>
-        <v>4.7350680000000001</v>
-      </c>
-      <c r="AN17">
-        <f t="shared" si="3"/>
         <v>0.27404551347346973</v>
       </c>
+      <c r="AQ17" s="6">
+        <f t="shared" si="6"/>
+        <v>9.314652083106173E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3126,9 +3362,9 @@
       <c r="H18">
         <v>0.30630000000000002</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <f t="shared" si="0"/>
-        <v>1.7727335864431891E-2</v>
+        <v>1.772733586443189</v>
       </c>
       <c r="J18">
         <v>35</v>
@@ -3166,63 +3402,75 @@
       <c r="U18">
         <v>83.77</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="7">
+        <f t="shared" si="7"/>
+        <v>6.3000594132378698</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" si="2"/>
+        <v>7.598784194528875E-2</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="3"/>
+        <v>16.644453752840015</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18">
+        <v>52.3</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF18">
+        <v>5</v>
+      </c>
+      <c r="AG18">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="AH18">
+        <v>8312</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ18">
+        <v>193.4</v>
+      </c>
+      <c r="AK18">
+        <v>14.7</v>
+      </c>
+      <c r="AL18">
+        <v>9.17</v>
+      </c>
+      <c r="AN18" s="5">
         <f t="shared" si="4"/>
-        <v>6.3000594132378698</v>
-      </c>
-      <c r="W18" t="s">
-        <v>35</v>
-      </c>
-      <c r="X18" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB18">
-        <v>52.3</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD18">
-        <v>5</v>
-      </c>
-      <c r="AE18">
-        <v>0.94299999999999995</v>
-      </c>
-      <c r="AF18">
-        <v>8312</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH18">
-        <v>193.4</v>
-      </c>
-      <c r="AI18">
-        <v>14.7</v>
-      </c>
-      <c r="AJ18">
-        <v>9.17</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="2"/>
         <v>0.31500297066189348</v>
       </c>
-      <c r="AM18">
+      <c r="AO18">
+        <f t="shared" si="8"/>
+        <v>1.5315000000000001</v>
+      </c>
+      <c r="AP18" s="6">
         <f t="shared" si="5"/>
-        <v>1.5315000000000001</v>
-      </c>
-      <c r="AN18">
-        <f t="shared" si="3"/>
-        <v>8.8636679322159462E-2</v>
+        <v>8.8636679322159448E-2</v>
+      </c>
+      <c r="AQ18" s="6">
+        <f t="shared" si="6"/>
+        <v>0.83222268764200069</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3247,9 +3495,9 @@
       <c r="H19">
         <v>1.4494</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <f t="shared" si="0"/>
-        <v>8.3885081952032592E-2</v>
+        <v>8.3885081952032596</v>
       </c>
       <c r="J19">
         <v>55</v>
@@ -3287,66 +3535,78 @@
       <c r="U19">
         <v>87.9</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="7">
+        <f t="shared" si="7"/>
+        <v>6.6106627960320976</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6846361185983826E-2</v>
+      </c>
+      <c r="X19" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6900439923749091</v>
+      </c>
+      <c r="Y19">
+        <v>61.4</v>
+      </c>
+      <c r="Z19">
+        <v>11.5</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB19">
+        <v>7.1</v>
+      </c>
+      <c r="AC19">
+        <v>7.1</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF19">
+        <v>2.77</v>
+      </c>
+      <c r="AG19">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="AH19">
+        <v>40615.1</v>
+      </c>
+      <c r="AI19">
+        <v>4.5</v>
+      </c>
+      <c r="AJ19">
+        <v>991.72</v>
+      </c>
+      <c r="AK19">
+        <v>16.707000000000001</v>
+      </c>
+      <c r="AL19">
+        <v>0.85</v>
+      </c>
+      <c r="AN19" s="5">
         <f t="shared" si="4"/>
-        <v>6.6106627960320976</v>
-      </c>
-      <c r="W19">
-        <v>61.4</v>
-      </c>
-      <c r="X19">
-        <v>11.5</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z19">
-        <v>7.1</v>
-      </c>
-      <c r="AA19">
-        <v>7.1</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19">
-        <v>2.77</v>
-      </c>
-      <c r="AE19">
-        <v>0.40200000000000002</v>
-      </c>
-      <c r="AF19">
-        <v>40615.1</v>
-      </c>
-      <c r="AG19">
-        <v>4.5</v>
-      </c>
-      <c r="AH19">
-        <v>991.72</v>
-      </c>
-      <c r="AI19">
-        <v>16.707000000000001</v>
-      </c>
-      <c r="AJ19">
-        <v>0.85</v>
-      </c>
-      <c r="AL19">
-        <f t="shared" si="2"/>
         <v>0.18311535945008908</v>
       </c>
-      <c r="AM19">
+      <c r="AO19">
+        <f t="shared" si="8"/>
+        <v>4.0148380000000001</v>
+      </c>
+      <c r="AP19" s="6">
         <f t="shared" si="5"/>
-        <v>4.0148380000000001</v>
-      </c>
-      <c r="AN19">
-        <f t="shared" si="3"/>
         <v>0.23236167700713029</v>
       </c>
+      <c r="AQ19" s="6">
+        <f t="shared" si="6"/>
+        <v>0.10221421858878499</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="E20">
         <f>SUM(E2:E6,E9:E19)</f>
         <v>17.278409000000003</v>
@@ -3355,10 +3615,11 @@
         <f>SUM(H2:H6,H9:H19)</f>
         <v>17.278400000000001</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <f>SUM(I2:I6,I9:I19)</f>
-        <v>0.99999999999999989</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="T20" s="7"/>
       <c r="U20">
         <f>SUM(U2:U6,U9:U19)</f>
         <v>1329.67</v>
@@ -3367,39 +3628,54 @@
         <f>SUM(V2:V6,V9:V19)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="AD20">
-        <f>AVERAGE(AD2:AD6,AD9:AD19)</f>
+      <c r="W20" s="7">
+        <f>SUM(W2:W6,W9:W19)</f>
+        <v>0.45653551070922388</v>
+      </c>
+      <c r="X20" s="1">
+        <f>SUM(X2:X6,X9:X19)</f>
+        <v>100</v>
+      </c>
+      <c r="AF20">
+        <f>AVERAGE(AF2:AF6,AF9:AF19)</f>
         <v>2.3374999999999999</v>
       </c>
-      <c r="AL20" s="1">
-        <f>SUM(AL2:AL6,AL9:AL19)</f>
+      <c r="AN20" s="1">
+        <f>SUM(AN2:AN6,AN9:AN19)</f>
         <v>2.1722087435228286</v>
       </c>
-      <c r="AM20" s="2">
-        <f>SUM(AM2:AM6,AM9:AM19)</f>
+      <c r="AO20" s="2">
+        <f>SUM(AO2:AO6,AO9:AO19)</f>
         <v>32.828429</v>
       </c>
-      <c r="AN20" s="2">
-        <f>SUM(AN2:AN6,AN9:AN19)</f>
-        <v>1.8999692679877769</v>
-      </c>
-      <c r="AO20" s="2"/>
+      <c r="AP20" s="2">
+        <f>SUM(AP2:AP6,AP9:AP19)</f>
+        <v>1.8999692679877764</v>
+      </c>
+      <c r="AQ20" s="2">
+        <f>SUM(AQ2:AQ6,AQ9:AQ19)</f>
+        <v>2.8772571832629965</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
-      <c r="AD21">
-        <f>_xlfn.STDEV.S(AD2:AD6,AD9:AD19)</f>
+      <c r="U21" s="1">
+        <f>H20/(U20/3600)</f>
+        <v>46.780208623192223</v>
+      </c>
+      <c r="AF21">
+        <f>_xlfn.STDEV.S(AF2:AF6,AF9:AF19)</f>
         <v>1.1843338493290929</v>
       </c>
-      <c r="AM21" s="2">
-        <f>AM20/H20</f>
+      <c r="AO21" s="2">
+        <f>AO20/H20</f>
         <v>1.8999692679877764</v>
       </c>
-      <c r="AO21" s="2"/>
+      <c r="AQ21" s="2"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3407,15 +3683,16 @@
         <v>1134.9000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
       <c r="B23">
         <v>1329.68</v>
       </c>
+      <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3423,7 +3700,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3431,7 +3708,7 @@
         <v>13869.58</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3439,7 +3716,7 @@
         <v>295.89800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3447,7 +3724,7 @@
         <v>40.965000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3455,7 +3732,7 @@
         <v>194.76</v>
       </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>

--- a/TestHighway4Output.xlsx
+++ b/TestHighway4Output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\NCHRP-08-135-Team_GitHub\CompEngine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5820948-22C2-454A-A173-4D342AC5C18D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B12DF14-461A-48F4-A5A7-400FE9AFC691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="540" windowWidth="35265" windowHeight="18795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestHighway4Output" sheetId="1" r:id="rId1"/>
@@ -231,9 +231,9 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -718,9 +718,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1076,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ29"/>
+  <dimension ref="A1:AS29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,6 +1093,7 @@
     <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -1101,7 +1102,7 @@
     <col min="43" max="43" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1364,8 +1365,16 @@
         <f>AF2*X2/100</f>
         <v>3.2126015003481612E-2</v>
       </c>
+      <c r="AR2">
+        <f>W2/$W$20</f>
+        <v>3.6506835231229107E-2</v>
+      </c>
+      <c r="AS2">
+        <f>AF2*AR2</f>
+        <v>3.2126015003481612E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1500,8 +1509,16 @@
         <f t="shared" ref="AQ3:AQ19" si="6">AF3*X3/100</f>
         <v>4.5059865199688513E-2</v>
       </c>
+      <c r="AR3">
+        <f t="shared" ref="AR3:AR19" si="7">W3/$W$20</f>
+        <v>4.1722097407118984E-2</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" ref="AS3:AS19" si="8">AF3*AR3</f>
+        <v>4.5059865199688506E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1633,8 +1650,16 @@
         <f t="shared" si="6"/>
         <v>0.24917363729251607</v>
       </c>
+      <c r="AR4">
+        <f t="shared" si="7"/>
+        <v>9.657892918314577E-2</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" si="8"/>
+        <v>0.2491736372925161</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1769,8 +1794,16 @@
         <f t="shared" si="6"/>
         <v>0.11055232741623888</v>
       </c>
+      <c r="AR5">
+        <f t="shared" si="7"/>
+        <v>3.6850775805412961E-2</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="8"/>
+        <v>0.11055232741623888</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1905,8 +1938,16 @@
         <f t="shared" si="6"/>
         <v>4.3123921864419677E-2</v>
       </c>
+      <c r="AR6">
+        <f t="shared" si="7"/>
+        <v>3.5639604846627829E-2</v>
+      </c>
+      <c r="AS6">
+        <f t="shared" si="8"/>
+        <v>4.312392186441967E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2014,7 +2055,7 @@
       <c r="AP7" s="6"/>
       <c r="AQ7" s="6"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2122,7 +2163,7 @@
       <c r="AP8" s="6"/>
       <c r="AQ8" s="6"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -2188,7 +2229,7 @@
         <v>75.75</v>
       </c>
       <c r="V9" s="7">
-        <f t="shared" ref="V9:V19" si="7">U9/$U$20*100</f>
+        <f t="shared" ref="V9:V19" si="9">U9/$U$20*100</f>
         <v>5.6969022389013819</v>
       </c>
       <c r="W9" s="3">
@@ -2246,7 +2287,7 @@
         <v>0.14925883865921621</v>
       </c>
       <c r="AO9">
-        <f t="shared" ref="AO9:AO19" si="8">AF9*H9</f>
+        <f t="shared" ref="AO9:AO19" si="10">AF9*H9</f>
         <v>3.2750000000000004</v>
       </c>
       <c r="AP9" s="6">
@@ -2257,8 +2298,16 @@
         <f t="shared" si="6"/>
         <v>9.6597786540131569E-2</v>
       </c>
+      <c r="AR9">
+        <f t="shared" si="7"/>
+        <v>3.6869384175622737E-2</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="8"/>
+        <v>9.6597786540131569E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -2324,7 +2373,7 @@
         <v>90.98</v>
       </c>
       <c r="V10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.8422992170989794</v>
       </c>
       <c r="W10" s="3">
@@ -2382,7 +2431,7 @@
         <v>0.18337361901825264</v>
       </c>
       <c r="AO10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0409040000000003</v>
       </c>
       <c r="AP10" s="6">
@@ -2393,8 +2442,16 @@
         <f t="shared" si="6"/>
         <v>9.8395895158927937E-2</v>
       </c>
+      <c r="AR10">
+        <f t="shared" si="7"/>
+        <v>3.6714886253331316E-2</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="8"/>
+        <v>9.8395895158927937E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2460,7 +2517,7 @@
         <v>71.64</v>
       </c>
       <c r="V11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.3878029887114849</v>
       </c>
       <c r="W11" s="3">
@@ -2515,7 +2572,7 @@
         <v>0.13253995352230252</v>
       </c>
       <c r="AO11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2233579999999999</v>
       </c>
       <c r="AP11" s="6">
@@ -2526,8 +2583,16 @@
         <f t="shared" si="6"/>
         <v>0.2156226042468754</v>
       </c>
+      <c r="AR11">
+        <f t="shared" si="7"/>
+        <v>8.765146514100626E-2</v>
+      </c>
+      <c r="AS11">
+        <f t="shared" si="8"/>
+        <v>0.2156226042468754</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2593,7 +2658,7 @@
         <v>112.42</v>
       </c>
       <c r="V12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.4547293689411642</v>
       </c>
       <c r="W12" s="3">
@@ -2651,7 +2716,7 @@
         <v>5.4110267961223452E-2</v>
       </c>
       <c r="AO12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.199168</v>
       </c>
       <c r="AP12" s="6">
@@ -2662,8 +2727,16 @@
         <f t="shared" si="6"/>
         <v>2.3364374547986629E-2</v>
       </c>
+      <c r="AR12">
+        <f t="shared" si="7"/>
+        <v>3.6506835231229107E-2</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="8"/>
+        <v>2.3364374547986629E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2729,7 +2802,7 @@
         <v>200.56</v>
       </c>
       <c r="V13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.083441756225227</v>
       </c>
       <c r="W13" s="3">
@@ -2787,7 +2860,7 @@
         <v>0.11614250152293425</v>
       </c>
       <c r="AO13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.2520959999999999</v>
       </c>
       <c r="AP13" s="6">
@@ -2798,8 +2871,16 @@
         <f t="shared" si="6"/>
         <v>3.2126015003481619E-2</v>
       </c>
+      <c r="AR13">
+        <f t="shared" si="7"/>
+        <v>4.1722097407118984E-2</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="8"/>
+        <v>3.2126015003481619E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2865,7 +2946,7 @@
         <v>88.3</v>
       </c>
       <c r="V14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6407454481187056</v>
       </c>
       <c r="W14" s="3">
@@ -2920,7 +3001,7 @@
         <v>0.17597975437514571</v>
       </c>
       <c r="AO14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5073199999999998</v>
       </c>
       <c r="AP14" s="6">
@@ -2931,8 +3012,16 @@
         <f t="shared" si="6"/>
         <v>0.25030559731631857</v>
       </c>
+      <c r="AR14">
+        <f t="shared" si="7"/>
+        <v>9.4454942383516441E-2</v>
+      </c>
+      <c r="AS14">
+        <f t="shared" si="8"/>
+        <v>0.25030559731631857</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2998,7 +3087,7 @@
         <v>41.86</v>
       </c>
       <c r="V15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1481495408635221</v>
       </c>
       <c r="W15" s="3">
@@ -3056,7 +3145,7 @@
         <v>8.1537073108365221E-2</v>
       </c>
       <c r="AO15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7922799999999999</v>
       </c>
       <c r="AP15" s="6">
@@ -3067,8 +3156,16 @@
         <f t="shared" si="6"/>
         <v>9.533124172295418E-2</v>
       </c>
+      <c r="AR15">
+        <f t="shared" si="7"/>
+        <v>3.6807429236661846E-2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="8"/>
+        <v>9.533124172295418E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -3134,7 +3231,7 @@
         <v>61.29</v>
       </c>
       <c r="V16" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6094143659705038</v>
       </c>
       <c r="W16" s="3">
@@ -3189,7 +3286,7 @@
         <v>0.18114998458264078</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.032411</v>
       </c>
       <c r="AP16" s="6">
@@ -3200,8 +3297,16 @@
         <f t="shared" si="6"/>
         <v>0.55789447488812849</v>
       </c>
+      <c r="AR16">
+        <f t="shared" si="7"/>
+        <v>0.14195788165092327</v>
+      </c>
+      <c r="AS16">
+        <f t="shared" si="8"/>
+        <v>0.55789447488812849</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3267,7 +3372,7 @@
         <v>112.36</v>
       </c>
       <c r="V17" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.4502169711281745</v>
       </c>
       <c r="W17" s="3">
@@ -3325,7 +3430,7 @@
         <v>0.21463551106665563</v>
       </c>
       <c r="AO17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.7350680000000001</v>
       </c>
       <c r="AP17" s="6">
@@ -3336,8 +3441,16 @@
         <f t="shared" si="6"/>
         <v>9.314652083106173E-2</v>
       </c>
+      <c r="AR17">
+        <f t="shared" si="7"/>
+        <v>3.6671858594906188E-2</v>
+      </c>
+      <c r="AS17">
+        <f t="shared" si="8"/>
+        <v>9.3146520831061716E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3403,7 +3516,7 @@
         <v>83.77</v>
       </c>
       <c r="V18" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.3000594132378698</v>
       </c>
       <c r="W18" s="3">
@@ -3458,7 +3571,7 @@
         <v>0.31500297066189348</v>
       </c>
       <c r="AO18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.5315000000000001</v>
       </c>
       <c r="AP18" s="6">
@@ -3469,8 +3582,16 @@
         <f t="shared" si="6"/>
         <v>0.83222268764200069</v>
       </c>
+      <c r="AR18">
+        <f t="shared" si="7"/>
+        <v>0.16644453752840016</v>
+      </c>
+      <c r="AS18">
+        <f t="shared" si="8"/>
+        <v>0.8322226876420008</v>
+      </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3536,7 +3657,7 @@
         <v>87.9</v>
       </c>
       <c r="V19" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.6106627960320976</v>
       </c>
       <c r="W19" s="3">
@@ -3594,7 +3715,7 @@
         <v>0.18311535945008908</v>
       </c>
       <c r="AO19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.0148380000000001</v>
       </c>
       <c r="AP19" s="6">
@@ -3605,8 +3726,16 @@
         <f t="shared" si="6"/>
         <v>0.10221421858878499</v>
       </c>
+      <c r="AR19">
+        <f t="shared" si="7"/>
+        <v>3.6900439923749091E-2</v>
+      </c>
+      <c r="AS19">
+        <f t="shared" si="8"/>
+        <v>0.10221421858878499</v>
+      </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E20">
         <f>SUM(E2:E6,E9:E19)</f>
         <v>17.278409000000003</v>
@@ -3656,8 +3785,12 @@
         <f>SUM(AQ2:AQ6,AQ9:AQ19)</f>
         <v>2.8772571832629965</v>
       </c>
+      <c r="AS20" s="2">
+        <f>SUM(AS2:AS6,AS9:AS19)</f>
+        <v>2.8772571832629965</v>
+      </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -3675,7 +3808,7 @@
       </c>
       <c r="AQ21" s="2"/>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -3683,7 +3816,7 @@
         <v>1134.9000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
@@ -3692,7 +3825,7 @@
       </c>
       <c r="W23" s="3"/>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -3700,7 +3833,7 @@
         <v>46.78</v>
       </c>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3708,7 +3841,7 @@
         <v>13869.58</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3716,7 +3849,7 @@
         <v>295.89800000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3724,7 +3857,7 @@
         <v>40.965000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3732,7 +3865,7 @@
         <v>194.76</v>
       </c>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
